--- a/biology/Mycologie/Pleurote_de_l’olivier/Pleurote_de_l’olivier.xlsx
+++ b/biology/Mycologie/Pleurote_de_l’olivier/Pleurote_de_l’olivier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pleurote_de_l%E2%80%99olivier</t>
+          <t>Pleurote_de_l’olivier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Omphalotus olearius
 Le Pleurote de l'olivier, Omphalotus olearius, est une espèce de champignons basidiomycètes de la famille des Omphalotaceae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pleurote_de_l%E2%80%99olivier</t>
+          <t>Pleurote_de_l’olivier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chapeau de 6-10-(14) cm, convexe puis étalé, à la fin déprimé et souvent même en large entonnoir (méritant bien son nom de genre, composé de deux mots grecs: omphalos « nombril » + ous, ôtos « oreille ») ; marge mince, enroulée, se fendant par temps sec. Cuticule séparable, épaisse, finement rayée et gercée, jaune orangé vif à rouge cuivre ou brun mordoré. Elle réagit en vert à l'ammoniaque.
 Lames serrées, inégales, minces, très décurrentes, fissiles, jaune orangé plus clair, plus safranées que le chapeau, souvent bioluminescentes.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pleurote_de_l%E2%80%99olivier</t>
+          <t>Pleurote_de_l’olivier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contrairement à ce qu'indique son nom[3], le clitocybe de l'olivier vient à même le sol, en touffes sur les racines ou à la base des troncs de divers feuillus, sur les souches de chênes, chênes verts, chênes-lièges, châtaigniers et bien sûr l'olivier. Plutôt méridional, il abonde dès le printemps dans le maquis de l'île de Port-Cros, et jusqu'en hiver. Plus rare au nord de la Loire, sans toutefois être exceptionnel. Généralement en touffes, rarement isolé, plutôt au ras du sol, à la base des souches ou en liaison avec des racines mortes, où ses chapeaux jaune safran à orangé roussâtre, lumineux, le font facilement remarquer. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement à ce qu'indique son nom, le clitocybe de l'olivier vient à même le sol, en touffes sur les racines ou à la base des troncs de divers feuillus, sur les souches de chênes, chênes verts, chênes-lièges, châtaigniers et bien sûr l'olivier. Plutôt méridional, il abonde dès le printemps dans le maquis de l'île de Port-Cros, et jusqu'en hiver. Plus rare au nord de la Loire, sans toutefois être exceptionnel. Généralement en touffes, rarement isolé, plutôt au ras du sol, à la base des souches ou en liaison avec des racines mortes, où ses chapeaux jaune safran à orangé roussâtre, lumineux, le font facilement remarquer. 
 Plus au nord, il pousse le plus souvent au pied et sur les souches et troncs des chênes et des châtaigniers qu'il parasite, au voisinage immédiat de ceux-ci, appréciant également d'autres feuillus, plus rarement dans les anciennes chênaies transformées en herbus. Dans ces régions, il s'agit souvent d'une variété voisine : Omphalotus illudens. Cette variété aux couleurs plus vives que celle du Midi, ressemble encore plus à la girolle, ce qui lui a valu son ancien nom de illudens (trompeur). Pousse également en quantité en Europe Centrale.
 </t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pleurote_de_l%E2%80%99olivier</t>
+          <t>Pleurote_de_l’olivier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Toxicité et confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre les autres Omphalotus ou des champignons du genre Panellus, le Pleurote de l'olivier (surtout jeune) peut être confondu par les novices avec la Girolle (Cantharellus cibarius) et avec la Fausse girolle (Hygrophoropsis aurantiaca) à cause de sa couleur orangée. Cantharellus cibarius s'en distingue aisément par ses lames épaisses, sinueuses, espacées, souvent reliées entre elles (car ce ne sont pas de vraies lames mais de simples plis), alors que celles du clitocybe de l'olivier sont fines et serrées.
 Les autres différences sont l'habitat, la couleur plus cuivrée, la marge enroulée et la poussée en touffes, similaire à celle des vrais Pleurotes.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pleurote_de_l%E2%80%99olivier</t>
+          <t>Pleurote_de_l’olivier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Espèces voisines</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Omphalotus illudens
 Omphalotus japonicus
